--- a/main/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/main/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T10:04:56+00:00</t>
+    <t>2025-11-21T13:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/main/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T13:35:41+00:00</t>
+    <t>2025-11-24T13:41:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/main/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T13:41:23+00:00</t>
+    <t>2025-11-24T14:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
+++ b/main/ig/ValueSet-categorie-orientation-sas-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T14:06:07+00:00</t>
+    <t>2025-11-25T08:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
